--- a/Task2.xlsx
+++ b/Task2.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/258498dc6d3b7ea6/Desktop/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB973853-0151-40E4-8DEA-6E6E7A5A8E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{EB973853-0151-40E4-8DEA-6E6E7A5A8E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537095DE-04F8-4EEE-8D81-87C8548273AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09EE172B-F735-4ED6-ACF7-E019080EEC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="210">
   <si>
     <t>Below is a list of the employees who work in your company:</t>
   </si>
@@ -127,13 +158,550 @@
   </si>
   <si>
     <t>Johnny Slash</t>
+  </si>
+  <si>
+    <t>The following table is an extract from an accounting system that contains four journal entries</t>
+  </si>
+  <si>
+    <t>Check if column A's cells match column B's cell</t>
+  </si>
+  <si>
+    <t>if they match - return "match", otherwise return "no match"</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Same value?</t>
+  </si>
+  <si>
+    <t>Journal Entry 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$94.00 </t>
+  </si>
+  <si>
+    <t>Journal Entry 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$109.00 </t>
+  </si>
+  <si>
+    <t>Journal Entry 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$85.00 </t>
+  </si>
+  <si>
+    <t>Journal Entry 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$85.50 </t>
+  </si>
+  <si>
+    <t>The table below contains details of high school students names and ages, use IF formula to complete columns D and E</t>
+  </si>
+  <si>
+    <t>If the student's age is 16 or above, he/she is eligible for a driver's license. Check if they are eligible or not. Answer in column D</t>
+  </si>
+  <si>
+    <t>If the student is younger than 18 years old he/she is a minor. Check whether the student is a minor or not. for Minor return "Minor" and non minor = "Adult" anwswer in column E</t>
+  </si>
+  <si>
+    <t>Column D</t>
+  </si>
+  <si>
+    <t>Column E</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Driver Licence</t>
+  </si>
+  <si>
+    <t>Minor/Adult?</t>
+  </si>
+  <si>
+    <t>Arik</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Cermit</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Eliko</t>
+  </si>
+  <si>
+    <t>Fage</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Herzl</t>
+  </si>
+  <si>
+    <t>An A+ student gets 100% scholarship and non A+ gets 50% scholarship as shown in the table below:</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>The following table contains the names of students from 2024 class.</t>
+  </si>
+  <si>
+    <t>Use IF function to calculate the scholarships' amounts each of them will get</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Tuition</t>
+  </si>
+  <si>
+    <t>Scholarship</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Rotem</t>
+  </si>
+  <si>
+    <t>The school decided to use the following grade system:</t>
+  </si>
+  <si>
+    <t>Grade higher or equal to 80 - Excellent</t>
+  </si>
+  <si>
+    <t>Grade higher or equal to 60 but lower than 80 - Good</t>
+  </si>
+  <si>
+    <t>Grade lower than 60 - Failed</t>
+  </si>
+  <si>
+    <t>Complete the following:</t>
+  </si>
+  <si>
+    <t>Student name</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Failed/Good/Excellent</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Software Eng</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Emily Chen</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Sam Lee</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Alice Kim</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Yoav Ishay</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Sue Kim</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Mike Lee</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Lily Chen</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Create a VLOOKUP formula to find the occupation of Jane Doe.</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>Enter function here:</t>
+  </si>
+  <si>
+    <t>Create a VLOOKUP formula to find the age of Mike Lee.</t>
+  </si>
+  <si>
+    <t>Create a VLOOKUP formula to find the occupation of a person whose name starts with "B" (Challenging!)</t>
+  </si>
+  <si>
+    <t>Retrieve the GBP:USD exchange rate for the following dates using VLOOKUP function, from the table in columns G-H.</t>
+  </si>
+  <si>
+    <t>In case there is no exchange rate for a certain date entry, return the the last known rate for that day.</t>
+  </si>
+  <si>
+    <t>GBP:USD Exchange rates:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3671 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3569 </t>
+  </si>
+  <si>
+    <t>1/15/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3624 </t>
+  </si>
+  <si>
+    <t>1/24/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3607 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3563 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3514 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3663 </t>
+  </si>
+  <si>
+    <t>1/13/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3637 </t>
+  </si>
+  <si>
+    <t>1/14/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3687 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3586 </t>
+  </si>
+  <si>
+    <t>1/18/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3584 </t>
+  </si>
+  <si>
+    <t>1/19/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3628 </t>
+  </si>
+  <si>
+    <t>1/20/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3653 </t>
+  </si>
+  <si>
+    <t>1/21/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3732 </t>
+  </si>
+  <si>
+    <t>1/22/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3684 </t>
+  </si>
+  <si>
+    <t>1/25/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3674 </t>
+  </si>
+  <si>
+    <t>1/26/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3733 </t>
+  </si>
+  <si>
+    <t>1/27/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3686 </t>
+  </si>
+  <si>
+    <t>1/28/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3718 </t>
+  </si>
+  <si>
+    <t>1/29/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.3702 </t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Sarah Lee</t>
+  </si>
+  <si>
+    <t>Tom Davis</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>Michael Wilson</t>
+  </si>
+  <si>
+    <t>Jessica Davis</t>
+  </si>
+  <si>
+    <t>David Martin</t>
+  </si>
+  <si>
+    <t>Rachel Green</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Total Pay</t>
+  </si>
+  <si>
+    <t>What is the department of employee with ID 102?</t>
+  </si>
+  <si>
+    <t>What is the salary of employee with ID 105?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total pay of employee with ID 107? </t>
+  </si>
+  <si>
+    <t>Client #</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>VIP Account?</t>
+  </si>
+  <si>
+    <t>Total commisions</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in VIP Accounts?</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in Non-VIP Accounts?</t>
+  </si>
+  <si>
+    <t>What is the total amount of commisions from accounts that are over $10,000?</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in accounts over $10,000?</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in accounts under $9,500?</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Quantity Sold</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>What is the total revenue of products with a rating of 5 in the month of June?</t>
+  </si>
+  <si>
+    <t>What is the total revenue of products with a rating of 4 or higher and sold in the month of June?</t>
+  </si>
+  <si>
+    <t>What is the total quantity sold of products with a rating of 4 or higher and a price of $800 or higher?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +732,113 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0E101A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0E101A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343541"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +857,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,13 +924,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -268,7 +1007,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,433 +1403,433 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50525536-3971-45E9-A6A1-230B0FF01DC1}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>56815</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>13836</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>51186</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>11771</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>51511</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>13046</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>50890</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>18276</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>53700</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>19327</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>55879</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>18996</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>59848</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>10387</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>58369</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>12566</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>50217</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>16406</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>50695</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>15784</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>59673</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>10959</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>52130</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>14562</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="str">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="str">
         <f>VLOOKUP(58369,A3:E15,2,FALSE)</f>
         <v>Thomas Davies</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9">
-        <f>VLOOKUP(B14,B3:E15,4,FALSE)</f>
+      <c r="B19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8">
+        <f>VLOOKUP("Estelle Cormack",B3:E15,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>55879</v>
       </c>
-      <c r="B24" s="12" t="str">
-        <f>VLOOKUP(A24,A3:E15,3,FALSE)</f>
+      <c r="B24" s="11" t="str">
+        <f>VLOOKUP(A24,$A$3:$E$15,MATCH($B$23,$A$3:$E$3,0),FALSE)</f>
         <v>Capetown</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>50217</v>
       </c>
-      <c r="B25" s="12" t="str">
-        <f t="shared" ref="B25:B26" si="0">VLOOKUP(A25,A4:E16,3,FALSE)</f>
+      <c r="B25" s="11" t="str">
+        <f t="shared" ref="B25:B26" si="0">VLOOKUP(A25,$A$3:$E$15,MATCH($B$23,$A$3:$E$3,0),FALSE)</f>
         <v>Warsaw</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>50695</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Cairo</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <f>_xlfn.XLOOKUP(A31,B3:B15,D3:D15,"Employee Not Found")</f>
         <v>18276</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="str">
-        <f t="shared" ref="B32:B33" si="1">_xlfn.XLOOKUP(A32,B4:B16,D4:D16,"Employee Not Found")</f>
+      <c r="B32" s="11" t="str">
+        <f>_xlfn.XLOOKUP(A32,B4:B16,D4:D16,"Employee Not Found")</f>
         <v>Employee Not Found</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="12">
-        <f t="shared" si="1"/>
+      <c r="B33" s="11">
+        <f t="shared" ref="B33" si="1">_xlfn.XLOOKUP(A33,B5:B17,D5:D17,"Employee Not Found")</f>
         <v>10959</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1019,6 +1837,2872 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A28:C28"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30 B23" xr:uid="{6F518406-1443-4C25-B9B8-160388C7A7A3}">
+      <formula1>$A$3:$E$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FBED13-5483-440F-914D-5770431EA1D0}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="79.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="65"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="65"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="67">
+        <v>5</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="67">
+        <v>15</v>
+      </c>
+      <c r="F3" s="67">
+        <v>500</v>
+      </c>
+      <c r="G3" s="67">
+        <v>7500</v>
+      </c>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="67">
+        <v>4</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="67">
+        <v>10</v>
+      </c>
+      <c r="F4" s="67">
+        <v>800</v>
+      </c>
+      <c r="G4" s="67">
+        <v>8000</v>
+      </c>
+      <c r="H4" s="65"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="67">
+        <v>3</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="67">
+        <v>20</v>
+      </c>
+      <c r="F5" s="67">
+        <v>400</v>
+      </c>
+      <c r="G5" s="67">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="67">
+        <v>4</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="67">
+        <v>12</v>
+      </c>
+      <c r="F6" s="67">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="67">
+        <v>12000</v>
+      </c>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="67">
+        <v>5</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="67">
+        <v>14</v>
+      </c>
+      <c r="F7" s="67">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="67">
+        <v>21000</v>
+      </c>
+      <c r="H7" s="65"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="67">
+        <v>4</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="67">
+        <v>18</v>
+      </c>
+      <c r="F8" s="67">
+        <v>600</v>
+      </c>
+      <c r="G8" s="67">
+        <v>10800</v>
+      </c>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="65">
+        <v>1</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="65"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="64">
+        <f>SUMIFS(G2:G8,C2:C8,C3,D2:D8,D4)</f>
+        <v>28500</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="65">
+        <v>2</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="65"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="64">
+        <f>SUMIFS(G2:G8,C2:C8,"&gt;=4",D2:D8,D3)</f>
+        <v>48500</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="65"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="65">
+        <v>3</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="64">
+        <f>SUMIFS(E2:E8,C2:C8,"&gt;=4",F2:F8,"&gt;=800")</f>
+        <v>36</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA4F4BC-6E63-4128-B23A-4FD048B40E0B}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>IF(B7=C7,"Match","No Match")</f>
+        <v>Match</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f t="shared" ref="D8:D10" si="0">IF(B8=C8,"Match","No Match")</f>
+        <v>Match</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>No Match</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC35732D-E08A-4851-99C0-B389576BC1CE}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="23">
+        <v>16</v>
+      </c>
+      <c r="E9" s="19" t="str">
+        <f>IF(D9&gt;=18,"Eligible","Not Eligible")</f>
+        <v>Not Eligible</v>
+      </c>
+      <c r="F9" s="19" t="str">
+        <f>IF(D9&gt;=18,"Adult","Minor")</f>
+        <v>Minor</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="23">
+        <v>18</v>
+      </c>
+      <c r="E10" s="19" t="str">
+        <f t="shared" ref="E10:E16" si="0">IF(D10&gt;=18,"Eligible","Not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+      <c r="F10" s="19" t="str">
+        <f t="shared" ref="F10:F16" si="1">IF(D10&gt;=18,"Adult","Minor")</f>
+        <v>Adult</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="E11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Eligible</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Minor</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="18">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="23">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Adult</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="23">
+        <v>18</v>
+      </c>
+      <c r="E13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Adult</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="18">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="23">
+        <v>13</v>
+      </c>
+      <c r="E14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Eligible</v>
+      </c>
+      <c r="F14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Minor</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="18">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="23">
+        <v>18</v>
+      </c>
+      <c r="E15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F15" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Adult</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="18">
+        <v>8</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="23">
+        <v>17</v>
+      </c>
+      <c r="E16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Eligible</v>
+      </c>
+      <c r="F16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Minor</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A78C853-98E8-46CA-845D-C99DBA291D41}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="25">
+        <v>46866</v>
+      </c>
+      <c r="D11" s="19">
+        <f>IF(B11="A+",C11/2,C11)</f>
+        <v>23433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="25">
+        <v>33495</v>
+      </c>
+      <c r="D12" s="19">
+        <f>IF(B12="A+",C12/2,C12)</f>
+        <v>33495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="25">
+        <v>35087</v>
+      </c>
+      <c r="D13" s="19">
+        <f>IF(B13="A+",C13/2,C13)</f>
+        <v>35087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="25">
+        <v>42603</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" ref="D14:D17" si="0">IF(B14="A+",C14/2,C14)</f>
+        <v>21301.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="25">
+        <v>36971</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>36971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="25">
+        <v>41286</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
+        <v>20643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="25">
+        <v>37732</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>37732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36BCF20-F43E-4E4D-9558-E82F535F2B28}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="27">
+        <v>78</v>
+      </c>
+      <c r="C9" s="28" t="str" cm="1">
+        <f t="array" ref="C9">_xlfn.IFS(B9&gt;=80,"Excellent",B9&gt;=60,"Good",B9&lt;=60,"Failed")</f>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="27">
+        <v>85</v>
+      </c>
+      <c r="C10" s="28" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.IFS(B10&gt;=80,"Excellent",B10&gt;=60,"Good",B10&lt;=60,"Failed")</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="27">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28" t="str" cm="1">
+        <f t="array" ref="C11">_xlfn.IFS(B11&gt;=80,"Excellent",B11&gt;=60,"Good",B11&lt;=60,"Failed")</f>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="27">
+        <v>61</v>
+      </c>
+      <c r="C12" s="28" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.IFS(B12&gt;=80,"Excellent",B12&gt;=60,"Good",B12&lt;=60,"Failed")</f>
+        <v>Good</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485D76C7-3459-4B9D-90E9-26561695FD59}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29"/>
+      <c r="B1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="32">
+        <v>35</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="32">
+        <v>42</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="32">
+        <v>28</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="32">
+        <v>25</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="32">
+        <v>31</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="32">
+        <v>27</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="32">
+        <v>38</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="32">
+        <v>29</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="32">
+        <v>45</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="32">
+        <v>33</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>1</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="35" t="str">
+        <f>VLOOKUP("Jane Doe",B1:E11,4,FALSE)</f>
+        <v>Data Scientist</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
+        <v>2</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="35">
+        <f>VLOOKUP("Mike Lee",B1:E11,2,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
+        <v>2</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="35" t="str">
+        <f>VLOOKUP("B*",B1:E11,4,FALSE)</f>
+        <v>Accountant</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4FACF-588F-40C0-9435-3A4E58C359D8}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="39">
+        <v>44197</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="41" t="str">
+        <f>VLOOKUP(A8,$G$5:$H$27,MATCH($B$7,$G$6:$H$6,0),FALSE)</f>
+        <v xml:space="preserve">$1.3624 </v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="39">
+        <v>44287</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="41" t="str">
+        <f>VLOOKUP(A9,$G$5:$H$27,MATCH($H$6,$G$6:$H$6,0),FALSE)</f>
+        <v xml:space="preserve">$1.3586 </v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="39">
+        <v>44317</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="41" t="e">
+        <f>VLOOKUP(A10,$G$5:$H$27,MATCH($H$6,$G$6:$H$6,0),FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="39">
+        <v>44348</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="39">
+        <v>44378</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="39">
+        <v>44409</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="39">
+        <v>44501</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="39">
+        <v>44531</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{21D73CD1-63A4-4D6A-892F-848056A5A6FC}">
+      <formula1>$G$6:$H$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555C65D3-77A9-4716-91DB-FE0689DC207D}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45">
+        <v>101</v>
+      </c>
+      <c r="D3" s="45">
+        <v>102</v>
+      </c>
+      <c r="E3" s="45">
+        <v>103</v>
+      </c>
+      <c r="F3" s="45">
+        <v>104</v>
+      </c>
+      <c r="G3" s="45">
+        <v>105</v>
+      </c>
+      <c r="H3" s="45">
+        <v>106</v>
+      </c>
+      <c r="I3" s="45">
+        <v>107</v>
+      </c>
+      <c r="J3" s="45">
+        <v>108</v>
+      </c>
+      <c r="K3" s="45">
+        <v>109</v>
+      </c>
+      <c r="L3" s="45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="46">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="46">
+        <v>55000</v>
+      </c>
+      <c r="E6" s="46">
+        <v>60000</v>
+      </c>
+      <c r="F6" s="46">
+        <v>65000</v>
+      </c>
+      <c r="G6" s="46">
+        <v>70000</v>
+      </c>
+      <c r="H6" s="46">
+        <v>75000</v>
+      </c>
+      <c r="I6" s="46">
+        <v>80000</v>
+      </c>
+      <c r="J6" s="46">
+        <v>85000</v>
+      </c>
+      <c r="K6" s="46">
+        <v>90000</v>
+      </c>
+      <c r="L6" s="46">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="46">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="46">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="46">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="46">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="46">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="46">
+        <v>4500</v>
+      </c>
+      <c r="I7" s="46">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="46">
+        <v>5500</v>
+      </c>
+      <c r="K7" s="46">
+        <v>6000</v>
+      </c>
+      <c r="L7" s="46">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="46">
+        <v>52000</v>
+      </c>
+      <c r="D8" s="46">
+        <v>57500</v>
+      </c>
+      <c r="E8" s="46">
+        <v>63000</v>
+      </c>
+      <c r="F8" s="46">
+        <v>685000</v>
+      </c>
+      <c r="G8" s="46">
+        <v>74000</v>
+      </c>
+      <c r="H8" s="46">
+        <v>79500</v>
+      </c>
+      <c r="I8" s="46">
+        <v>85000</v>
+      </c>
+      <c r="J8" s="46">
+        <v>90500</v>
+      </c>
+      <c r="K8" s="46">
+        <v>96000</v>
+      </c>
+      <c r="L8" s="46">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="47" t="str">
+        <f>HLOOKUP(102,B3:L8,MATCH("department",B3:B8,0),TRUE)</f>
+        <v>Marketing</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="47">
+        <f>HLOOKUP(105,B3:L8,MATCH("salary",B3:B8,0),TRUE)</f>
+        <v>70000</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>3</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="47">
+        <f>HLOOKUP(107,B3:L8,MATCH("total pay",B3:B8,0),TRUE)</f>
+        <v>85000</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABAF74D-B496-4623-A2B3-8568E8D0CA3B}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="55"/>
+      <c r="B1" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="58">
+        <v>1</v>
+      </c>
+      <c r="C2" s="59">
+        <v>8000</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="58">
+        <v>10</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="58">
+        <v>2</v>
+      </c>
+      <c r="C3" s="59">
+        <v>11000</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="58">
+        <v>9</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
+      <c r="B4" s="58">
+        <v>3</v>
+      </c>
+      <c r="C4" s="59">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="58">
+        <v>5</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
+      <c r="B5" s="58">
+        <v>4</v>
+      </c>
+      <c r="C5" s="59">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="58">
+        <v>10</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
+      <c r="B6" s="58">
+        <v>5</v>
+      </c>
+      <c r="C6" s="59">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="58">
+        <v>2</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="58">
+        <v>6</v>
+      </c>
+      <c r="C7" s="59">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="58">
+        <v>5</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="58">
+        <v>7</v>
+      </c>
+      <c r="C8" s="59">
+        <v>13000</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="58">
+        <v>999</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
+      <c r="B9" s="58">
+        <v>8</v>
+      </c>
+      <c r="C9" s="59">
+        <v>8000</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="58">
+        <v>2</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="58">
+        <v>9</v>
+      </c>
+      <c r="C10" s="59">
+        <v>11000</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="58">
+        <v>5</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
+      <c r="B11" s="58">
+        <v>10</v>
+      </c>
+      <c r="C11" s="59">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="58">
+        <v>6</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="55">
+        <v>1</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="60">
+        <f>SUMIF(D1:D11,D3,C1:C11)</f>
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55">
+        <v>2</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="60">
+        <f>SUMIF(D1:D11,D4,C1:C11)</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55">
+        <v>3</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="60">
+        <f>SUMIF(C1:C11,"&gt;=10000",E1:E11)</f>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="55">
+        <v>4</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="60">
+        <f>SUMIF(C1:C11,"&gt;=10000",C1:C11)</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="55">
+        <v>5</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="60">
+        <f>SUMIF(C1:C11,"&lt;9500",C1:C11)</f>
+        <v>31000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>